--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 ALTA DE GUARDIAS (ADG)" sheetId="1" r:id="rId1"/>
     <sheet name="2 INGRESO DOT MEDICOS (IDM)" sheetId="2" r:id="rId2"/>
     <sheet name="3 INGRESO DOT ENFERMERO (IDE)" sheetId="3" r:id="rId3"/>
     <sheet name="4 GUARDIAS CABINA (GCAB)" sheetId="4" r:id="rId4"/>
+    <sheet name="5 LOGUIN" sheetId="5" r:id="rId5"/>
+    <sheet name="6 PREVISUAIZACION" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="179">
   <si>
     <t>gcab_lbl_1</t>
   </si>
@@ -515,6 +517,45 @@
   </si>
   <si>
     <t>gcab_glay_2</t>
+  </si>
+  <si>
+    <t>LOGUIN</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>PREVISUALIZACION</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>log_lbl_1</t>
+  </si>
+  <si>
+    <t>log_tlbv_1</t>
+  </si>
+  <si>
+    <t>log_btn_1</t>
+  </si>
+  <si>
+    <t>prev_lbl_1</t>
+  </si>
+  <si>
+    <t>prev_lbl_2</t>
+  </si>
+  <si>
+    <t>prev_lbl_3</t>
+  </si>
+  <si>
+    <t>prev_let_1</t>
+  </si>
+  <si>
+    <t>prev_let_2</t>
+  </si>
+  <si>
+    <t>prev_btn_1</t>
   </si>
 </sst>
 </file>
@@ -696,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -954,11 +995,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1099,6 +1153,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,6 +1225,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,12 +1710,12 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
       <c r="N5" s="12" t="s">
         <v>52</v>
       </c>
@@ -1622,10 +1738,10 @@
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="N6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1636,32 +1752,32 @@
     <row r="7" spans="1:16">
       <c r="A7" s="9"/>
       <c r="B7" s="40"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="40"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="9"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="9"/>
@@ -1672,10 +1788,10 @@
       <c r="F9" s="12"/>
       <c r="G9" s="9"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="9"/>
@@ -1690,10 +1806,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
       <c r="N10" s="33" t="s">
         <v>56</v>
       </c>
@@ -1711,10 +1827,10 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9"/>
@@ -1729,10 +1845,10 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
       <c r="N12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1753,10 +1869,10 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
       <c r="N13" s="54" t="s">
         <v>34</v>
       </c>
@@ -1780,10 +1896,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
       <c r="N14" s="55" t="s">
         <v>31</v>
       </c>
@@ -1794,18 +1910,18 @@
     <row r="15" spans="1:16">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
       <c r="N15" s="52" t="s">
         <v>26</v>
       </c>
@@ -1816,16 +1932,16 @@
     <row r="16" spans="1:16">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
       <c r="N16" s="23" t="s">
         <v>36</v>
       </c>
@@ -1841,10 +1957,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
       <c r="N17" s="58" t="s">
         <v>54</v>
       </c>
@@ -1870,10 +1986,10 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
       <c r="N18" s="5" t="s">
         <v>55</v>
       </c>
@@ -1888,17 +2004,17 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="9"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="N19" s="13" t="s">
         <v>47</v>
       </c>
@@ -1910,15 +2026,15 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="9"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="N20" s="50" t="s">
         <v>137</v>
       </c>
@@ -1930,15 +2046,15 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="N21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1959,10 +2075,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1983,10 +2099,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="N23" s="4" t="s">
         <v>48</v>
       </c>
@@ -2005,10 +2121,10 @@
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="N24" s="24" t="s">
         <v>50</v>
       </c>
@@ -2411,14 +2527,14 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="12"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12"/>
@@ -2435,12 +2551,12 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="12"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
@@ -2481,10 +2597,10 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="78"/>
+      <c r="K8" s="79"/>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:18">
@@ -2497,8 +2613,8 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:18">
@@ -2548,10 +2664,10 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="88"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="11"/>
       <c r="P12" s="6" t="s">
         <v>46</v>
@@ -2570,8 +2686,8 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
       <c r="P13" s="54" t="s">
         <v>34</v>
       </c>
@@ -3148,13 +3264,13 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="61"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="61"/>
       <c r="H3" s="63" t="s">
         <v>144</v>
@@ -3171,11 +3287,11 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="61"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
       <c r="I4" s="65" t="s">
@@ -3233,10 +3349,10 @@
       <c r="F7" s="67"/>
       <c r="G7" s="66"/>
       <c r="H7" s="60"/>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="92"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:17">
@@ -3248,8 +3364,8 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="95"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:17">
@@ -3728,8 +3844,8 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3872,18 +3988,18 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="31"/>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="10"/>
       <c r="O6">
         <v>4</v>
@@ -3897,16 +4013,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="31"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:18">
@@ -4209,4 +4325,871 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P39" sqref="A1:P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="110"/>
+      <c r="B3" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="110"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="103"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="110"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="115"/>
+      <c r="E5" s="113"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="110"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="106"/>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="19"/>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="N18" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="N20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="N21" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="N23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="N24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="N25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="N27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="N28" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="N30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="N31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="N32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15">
+      <c r="N35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="110"/>
+      <c r="B2" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="116"/>
+      <c r="B3" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="116"/>
+      <c r="B4" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="103"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="116"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="116"/>
+      <c r="B6" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="116"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="110"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="106"/>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="110"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="110"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="110"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="19"/>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="N18" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="N20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="N21" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="N23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="N24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="N25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="N27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="N28" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="N29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="N30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="N31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="N32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15">
+      <c r="N35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>